--- a/sellerflash-otomasyon-linkler/Kitchen & Table Linens - Kitchen Utensils & Gadgets.xlsx
+++ b/sellerflash-otomasyon-linkler/Kitchen & Table Linens - Kitchen Utensils & Gadgets.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CB2EC2-B028-6F4B-8EB6-CCA120F4044A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448456A8-AF88-3F42-9336-7CAF5B53702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="740" windowWidth="25900" windowHeight="16900" xr2:uid="{0B0365CD-713A-BC42-8154-91FD5F5C0A3C}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16860" xr2:uid="{0B0365CD-713A-BC42-8154-91FD5F5C0A3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505F4BB5-3FEA-6D45-A2D4-E5E0DCC54D85}">
   <dimension ref="A1:B106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
